--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="42">
   <si>
     <t>1.</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Understand the structure / link between pages / controllers / functions</t>
+  </si>
+  <si>
+    <t>Study the tutorial regarding simple MVC structure</t>
+  </si>
+  <si>
+    <t>Rewrite the code, adapted to local database / table - builded before</t>
   </si>
 </sst>
 </file>
@@ -586,24 +592,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -617,6 +605,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -937,7 +943,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -965,32 +971,32 @@
       <c r="I1" s="71"/>
       <c r="J1" s="23"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="25"/>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="26"/>
-      <c r="Z1" s="65" t="s">
+      <c r="Z1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="66"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="60"/>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21"/>
       <c r="AH1" s="22"/>
@@ -1714,7 +1720,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1742,23 +1748,23 @@
       </c>
       <c r="M4" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="N4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4" s="40">
         <f t="shared" si="0"/>
@@ -3283,10 +3289,10 @@
       </c>
     </row>
     <row r="6" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="45">
@@ -3373,8 +3379,8 @@
       <c r="HS6" s="7"/>
     </row>
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="53">
         <v>1.2</v>
       </c>
@@ -3459,8 +3465,8 @@
       <c r="HS7" s="7"/>
     </row>
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="63"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="53">
         <v>1.3</v>
       </c>
@@ -3545,8 +3551,8 @@
       <c r="HS8" s="7"/>
     </row>
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="63"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="53">
         <v>1.4</v>
       </c>
@@ -3631,8 +3637,8 @@
       <c r="HS9" s="7"/>
     </row>
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="53">
         <v>1.5</v>
       </c>
@@ -3646,7 +3652,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>3</v>
       </c>
       <c r="P10" s="7"/>
@@ -3717,20 +3723,27 @@
       <c r="HS10" s="7"/>
     </row>
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="63"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="53">
         <v>1.6</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F11" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="L11" s="9"/>
-      <c r="P11" s="7"/>
+      <c r="O11" s="1">
+        <v>3</v>
+      </c>
+      <c r="P11" s="7">
+        <v>3</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
@@ -3798,21 +3811,25 @@
       <c r="HS11" s="7"/>
     </row>
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="63"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="53">
         <v>1.7</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="F12" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="L12" s="9"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="7">
+        <v>4</v>
+      </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="AD12" s="7"/>
@@ -3879,8 +3896,8 @@
       <c r="HS12" s="7"/>
     </row>
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="63"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="53">
         <v>1.8</v>
       </c>
@@ -3960,8 +3977,8 @@
       <c r="HS13" s="7"/>
     </row>
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="63"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="53">
         <v>1.9</v>
       </c>
@@ -4041,8 +4058,8 @@
       <c r="HS14" s="7"/>
     </row>
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="63"/>
-      <c r="C15" s="59"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="54">
         <v>1.1000000000000001</v>
       </c>
@@ -4122,8 +4139,8 @@
       <c r="HS15" s="7"/>
     </row>
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="64"/>
-      <c r="C16" s="60"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="52"/>
       <c r="E16" s="14" t="s">
         <v>23</v>
@@ -4203,10 +4220,10 @@
       <c r="HS16" s="7"/>
     </row>
     <row r="17" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="55">
@@ -4293,8 +4310,8 @@
       <c r="HS17" s="7"/>
     </row>
     <row r="18" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="53">
         <v>2.2000000000000002</v>
       </c>
@@ -4374,8 +4391,8 @@
       <c r="HS18" s="7"/>
     </row>
     <row r="19" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="53">
         <v>2.2999999999999998</v>
       </c>
@@ -4455,8 +4472,8 @@
       <c r="HS19" s="7"/>
     </row>
     <row r="20" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="53">
         <v>2.4</v>
       </c>
@@ -4536,8 +4553,8 @@
       <c r="HS20" s="7"/>
     </row>
     <row r="21" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="53">
         <v>2.5</v>
       </c>
@@ -4617,8 +4634,8 @@
       <c r="HS21" s="7"/>
     </row>
     <row r="22" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="59"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="53">
         <v>2.6</v>
       </c>
@@ -4698,8 +4715,8 @@
       <c r="HS22" s="7"/>
     </row>
     <row r="23" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="59"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="53">
         <v>2.7</v>
       </c>
@@ -4779,8 +4796,8 @@
       <c r="HS23" s="7"/>
     </row>
     <row r="24" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="53">
         <v>2.8</v>
       </c>
@@ -4860,8 +4877,8 @@
       <c r="HS24" s="7"/>
     </row>
     <row r="25" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="59"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="53">
         <v>2.9</v>
       </c>
@@ -4941,8 +4958,8 @@
       <c r="HS25" s="7"/>
     </row>
     <row r="26" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="64"/>
-      <c r="C26" s="60"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="52"/>
       <c r="E26" s="14" t="s">
         <v>23</v>
@@ -5022,10 +5039,10 @@
       <c r="HS26" s="7"/>
     </row>
     <row r="27" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="64" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="55">
@@ -5107,8 +5124,8 @@
       <c r="HS27" s="7"/>
     </row>
     <row r="28" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="63"/>
-      <c r="C28" s="59"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="53">
         <v>3.2</v>
       </c>
@@ -5188,8 +5205,8 @@
       <c r="HS28" s="7"/>
     </row>
     <row r="29" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="63"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="53">
         <v>3.3</v>
       </c>
@@ -5269,8 +5286,8 @@
       <c r="HS29" s="7"/>
     </row>
     <row r="30" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="63"/>
-      <c r="C30" s="59"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="53">
         <v>3.4</v>
       </c>
@@ -5350,8 +5367,8 @@
       <c r="HS30" s="7"/>
     </row>
     <row r="31" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="63"/>
-      <c r="C31" s="59"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="53">
         <v>3.5</v>
       </c>
@@ -5431,8 +5448,8 @@
       <c r="HS31" s="7"/>
     </row>
     <row r="32" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="59"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="53">
         <v>3.6</v>
       </c>
@@ -5512,8 +5529,8 @@
       <c r="HS32" s="7"/>
     </row>
     <row r="33" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="63"/>
-      <c r="C33" s="59"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="53">
         <v>3.7</v>
       </c>
@@ -5593,8 +5610,8 @@
       <c r="HS33" s="7"/>
     </row>
     <row r="34" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="59"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="53">
         <v>3.8</v>
       </c>
@@ -5674,8 +5691,8 @@
       <c r="HS34" s="7"/>
     </row>
     <row r="35" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
-      <c r="C35" s="59"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="53">
         <v>3.9</v>
       </c>
@@ -5755,8 +5772,8 @@
       <c r="HS35" s="7"/>
     </row>
     <row r="36" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="64"/>
-      <c r="C36" s="60"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="52"/>
       <c r="E36" s="14" t="s">
         <v>23</v>
@@ -5836,10 +5853,10 @@
       <c r="HS36" s="7"/>
     </row>
     <row r="37" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="64" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="55">
@@ -5921,8 +5938,8 @@
       <c r="HS37" s="7"/>
     </row>
     <row r="38" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
-      <c r="C38" s="59"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="53">
         <v>4.2</v>
       </c>
@@ -6002,8 +6019,8 @@
       <c r="HS38" s="7"/>
     </row>
     <row r="39" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="63"/>
-      <c r="C39" s="59"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="53">
         <v>4.3</v>
       </c>
@@ -6083,8 +6100,8 @@
       <c r="HS39" s="7"/>
     </row>
     <row r="40" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="63"/>
-      <c r="C40" s="59"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="53">
         <v>4.4000000000000004</v>
       </c>
@@ -6164,8 +6181,8 @@
       <c r="HS40" s="7"/>
     </row>
     <row r="41" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="63"/>
-      <c r="C41" s="59"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="53">
         <v>4.5</v>
       </c>
@@ -6245,8 +6262,8 @@
       <c r="HS41" s="7"/>
     </row>
     <row r="42" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="59"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="53">
         <v>4.5999999999999996</v>
       </c>
@@ -6326,8 +6343,8 @@
       <c r="HS42" s="7"/>
     </row>
     <row r="43" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="59"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="53">
         <v>4.7</v>
       </c>
@@ -6407,8 +6424,8 @@
       <c r="HS43" s="7"/>
     </row>
     <row r="44" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="63"/>
-      <c r="C44" s="59"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="53">
         <v>4.8</v>
       </c>
@@ -6488,8 +6505,8 @@
       <c r="HS44" s="7"/>
     </row>
     <row r="45" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="63"/>
-      <c r="C45" s="59"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="53">
         <v>4.9000000000000004</v>
       </c>
@@ -6569,8 +6586,8 @@
       <c r="HS45" s="7"/>
     </row>
     <row r="46" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="63"/>
-      <c r="C46" s="59"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="54">
         <v>4.0999999999999996</v>
       </c>
@@ -6650,8 +6667,8 @@
       <c r="HS46" s="7"/>
     </row>
     <row r="47" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="64"/>
-      <c r="C47" s="60"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="52"/>
       <c r="E47" s="14" t="s">
         <v>23</v>
@@ -6731,10 +6748,10 @@
       <c r="HS47" s="7"/>
     </row>
     <row r="48" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="64" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="55">
@@ -6816,8 +6833,8 @@
       <c r="HS48" s="7"/>
     </row>
     <row r="49" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
-      <c r="C49" s="59"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="53">
         <v>5.2</v>
       </c>
@@ -6897,8 +6914,8 @@
       <c r="HS49" s="7"/>
     </row>
     <row r="50" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="63"/>
-      <c r="C50" s="59"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="53">
         <v>5.3</v>
       </c>
@@ -6978,8 +6995,8 @@
       <c r="HS50" s="7"/>
     </row>
     <row r="51" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="63"/>
-      <c r="C51" s="59"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="53">
         <v>5.4</v>
       </c>
@@ -7059,8 +7076,8 @@
       <c r="HS51" s="7"/>
     </row>
     <row r="52" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
-      <c r="C52" s="59"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="53">
         <v>5.5</v>
       </c>
@@ -7140,8 +7157,8 @@
       <c r="HS52" s="7"/>
     </row>
     <row r="53" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="63"/>
-      <c r="C53" s="59"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="53">
         <v>5.6</v>
       </c>
@@ -7221,8 +7238,8 @@
       <c r="HS53" s="7"/>
     </row>
     <row r="54" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="63"/>
-      <c r="C54" s="59"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="53">
         <v>5.7</v>
       </c>
@@ -7302,8 +7319,8 @@
       <c r="HS54" s="7"/>
     </row>
     <row r="55" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="63"/>
-      <c r="C55" s="59"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="53">
         <v>5.8</v>
       </c>
@@ -7383,8 +7400,8 @@
       <c r="HS55" s="7"/>
     </row>
     <row r="56" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="63"/>
-      <c r="C56" s="59"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="53">
         <v>5.9</v>
       </c>
@@ -7464,8 +7481,8 @@
       <c r="HS56" s="7"/>
     </row>
     <row r="57" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="64"/>
-      <c r="C57" s="60"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="52"/>
       <c r="E57" s="14" t="s">
         <v>23</v>
@@ -7545,10 +7562,10 @@
       <c r="HS57" s="7"/>
     </row>
     <row r="58" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="61" t="s">
+      <c r="C58" s="64" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="55">
@@ -7630,8 +7647,8 @@
       <c r="HS58" s="7"/>
     </row>
     <row r="59" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="63"/>
-      <c r="C59" s="59"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="53">
         <v>6.2</v>
       </c>
@@ -7711,8 +7728,8 @@
       <c r="HS59" s="7"/>
     </row>
     <row r="60" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="63"/>
-      <c r="C60" s="59"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="53">
         <v>6.3</v>
       </c>
@@ -7792,8 +7809,8 @@
       <c r="HS60" s="7"/>
     </row>
     <row r="61" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="63"/>
-      <c r="C61" s="59"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="53">
         <v>6.4</v>
       </c>
@@ -7873,8 +7890,8 @@
       <c r="HS61" s="7"/>
     </row>
     <row r="62" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="63"/>
-      <c r="C62" s="59"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="53">
         <v>6.5</v>
       </c>
@@ -7954,8 +7971,8 @@
       <c r="HS62" s="7"/>
     </row>
     <row r="63" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="63"/>
-      <c r="C63" s="59"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="53">
         <v>6.6</v>
       </c>
@@ -8035,8 +8052,8 @@
       <c r="HS63" s="7"/>
     </row>
     <row r="64" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="63"/>
-      <c r="C64" s="59"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="53">
         <v>6.7</v>
       </c>
@@ -8116,8 +8133,8 @@
       <c r="HS64" s="7"/>
     </row>
     <row r="65" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="63"/>
-      <c r="C65" s="59"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="53">
         <v>6.8</v>
       </c>
@@ -8197,8 +8214,8 @@
       <c r="HS65" s="7"/>
     </row>
     <row r="66" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="63"/>
-      <c r="C66" s="59"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="53">
         <v>6.9</v>
       </c>
@@ -8278,8 +8295,8 @@
       <c r="HS66" s="7"/>
     </row>
     <row r="67" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="64"/>
-      <c r="C67" s="60"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="52"/>
       <c r="E67" s="14" t="s">
         <v>23</v>
@@ -8359,10 +8376,10 @@
       <c r="HS67" s="7"/>
     </row>
     <row r="68" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="61" t="s">
+      <c r="C68" s="64" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="55">
@@ -8444,8 +8461,8 @@
       <c r="HS68" s="7"/>
     </row>
     <row r="69" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="63"/>
-      <c r="C69" s="59"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="53">
         <v>7.2</v>
       </c>
@@ -8525,8 +8542,8 @@
       <c r="HS69" s="7"/>
     </row>
     <row r="70" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="63"/>
-      <c r="C70" s="59"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="53">
         <v>7.3</v>
       </c>
@@ -8606,8 +8623,8 @@
       <c r="HS70" s="7"/>
     </row>
     <row r="71" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="63"/>
-      <c r="C71" s="59"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="53">
         <v>7.4</v>
       </c>
@@ -8687,8 +8704,8 @@
       <c r="HS71" s="7"/>
     </row>
     <row r="72" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="63"/>
-      <c r="C72" s="59"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="53">
         <v>7.5</v>
       </c>
@@ -8768,8 +8785,8 @@
       <c r="HS72" s="7"/>
     </row>
     <row r="73" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
-      <c r="C73" s="59"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="53">
         <v>7.6</v>
       </c>
@@ -8849,8 +8866,8 @@
       <c r="HS73" s="7"/>
     </row>
     <row r="74" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="63"/>
-      <c r="C74" s="59"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="53">
         <v>7.7</v>
       </c>
@@ -8930,8 +8947,8 @@
       <c r="HS74" s="7"/>
     </row>
     <row r="75" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="63"/>
-      <c r="C75" s="59"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="53">
         <v>7.8</v>
       </c>
@@ -9011,8 +9028,8 @@
       <c r="HS75" s="7"/>
     </row>
     <row r="76" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="63"/>
-      <c r="C76" s="59"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="53">
         <v>7.9</v>
       </c>
@@ -9092,8 +9109,8 @@
       <c r="HS76" s="7"/>
     </row>
     <row r="77" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="64"/>
-      <c r="C77" s="60"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="52"/>
       <c r="E77" s="14" t="s">
         <v>23</v>
@@ -9173,10 +9190,10 @@
       <c r="HS77" s="7"/>
     </row>
     <row r="78" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="67" t="s">
+      <c r="B78" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="61" t="s">
+      <c r="C78" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="55">
@@ -9258,8 +9275,8 @@
       <c r="HS78" s="7"/>
     </row>
     <row r="79" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="68"/>
-      <c r="C79" s="59"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="53">
         <v>7.2</v>
       </c>
@@ -9339,8 +9356,8 @@
       <c r="HS79" s="7"/>
     </row>
     <row r="80" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="68"/>
-      <c r="C80" s="59"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="65"/>
       <c r="D80" s="53">
         <v>7.3</v>
       </c>
@@ -9420,8 +9437,8 @@
       <c r="HS80" s="7"/>
     </row>
     <row r="81" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="68"/>
-      <c r="C81" s="59"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="65"/>
       <c r="D81" s="53">
         <v>7.4</v>
       </c>
@@ -9501,8 +9518,8 @@
       <c r="HS81" s="7"/>
     </row>
     <row r="82" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="68"/>
-      <c r="C82" s="59"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="65"/>
       <c r="D82" s="53">
         <v>7.5</v>
       </c>
@@ -9582,8 +9599,8 @@
       <c r="HS82" s="7"/>
     </row>
     <row r="83" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="68"/>
-      <c r="C83" s="59"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="65"/>
       <c r="D83" s="53">
         <v>7.6</v>
       </c>
@@ -9663,8 +9680,8 @@
       <c r="HS83" s="7"/>
     </row>
     <row r="84" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="68"/>
-      <c r="C84" s="59"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="65"/>
       <c r="D84" s="53">
         <v>7.7</v>
       </c>
@@ -9744,8 +9761,8 @@
       <c r="HS84" s="7"/>
     </row>
     <row r="85" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="68"/>
-      <c r="C85" s="59"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="65"/>
       <c r="D85" s="53">
         <v>7.8</v>
       </c>
@@ -9825,8 +9842,8 @@
       <c r="HS85" s="7"/>
     </row>
     <row r="86" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="68"/>
-      <c r="C86" s="59"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="65"/>
       <c r="D86" s="53">
         <v>7.9</v>
       </c>
@@ -9906,8 +9923,8 @@
       <c r="HS86" s="7"/>
     </row>
     <row r="87" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="69"/>
-      <c r="C87" s="60"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="66"/>
       <c r="D87" s="52"/>
       <c r="E87" s="14" t="s">
         <v>23</v>
@@ -10976,6 +10993,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="B6:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="S1:W1"/>
@@ -10992,12 +11015,6 @@
     <mergeCell ref="B37:B47"/>
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="C48:C57"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -170,7 +170,7 @@
     <t>Study the tutorial regarding simple MVC structure</t>
   </si>
   <si>
-    <t>Rewrite the code, adapted to local database / table - builded before</t>
+    <t>Rewrite the code, adapted to local database / tables - builded before</t>
   </si>
 </sst>
 </file>
@@ -592,6 +592,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -605,24 +623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,7 +943,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -971,32 +971,32 @@
       <c r="I1" s="71"/>
       <c r="J1" s="23"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="25"/>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="26"/>
-      <c r="Z1" s="59" t="s">
+      <c r="Z1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="60"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="66"/>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21"/>
       <c r="AH1" s="22"/>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="R4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S4" s="40">
         <f t="shared" si="0"/>
@@ -3289,10 +3289,10 @@
       </c>
     </row>
     <row r="6" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="45">
@@ -3379,8 +3379,8 @@
       <c r="HS6" s="7"/>
     </row>
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="68"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="53">
         <v>1.2</v>
       </c>
@@ -3465,8 +3465,8 @@
       <c r="HS7" s="7"/>
     </row>
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="68"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="53">
         <v>1.3</v>
       </c>
@@ -3551,8 +3551,8 @@
       <c r="HS8" s="7"/>
     </row>
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="68"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="53">
         <v>1.4</v>
       </c>
@@ -3637,8 +3637,8 @@
       <c r="HS9" s="7"/>
     </row>
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="53">
         <v>1.5</v>
       </c>
@@ -3723,8 +3723,8 @@
       <c r="HS10" s="7"/>
     </row>
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="68"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="53">
         <v>1.6</v>
       </c>
@@ -3811,8 +3811,8 @@
       <c r="HS11" s="7"/>
     </row>
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="68"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="53">
         <v>1.7</v>
       </c>
@@ -3821,13 +3821,16 @@
       </c>
       <c r="F12" s="38">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="L12" s="9"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7">
+        <v>4</v>
+      </c>
+      <c r="R12" s="1">
         <v>4</v>
       </c>
       <c r="W12" s="7"/>
@@ -3896,8 +3899,8 @@
       <c r="HS12" s="7"/>
     </row>
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
-      <c r="C13" s="65"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="53">
         <v>1.8</v>
       </c>
@@ -3977,8 +3980,8 @@
       <c r="HS13" s="7"/>
     </row>
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="68"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="53">
         <v>1.9</v>
       </c>
@@ -4058,8 +4061,8 @@
       <c r="HS14" s="7"/>
     </row>
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="68"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="54">
         <v>1.1000000000000001</v>
       </c>
@@ -4139,8 +4142,8 @@
       <c r="HS15" s="7"/>
     </row>
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="69"/>
-      <c r="C16" s="66"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="52"/>
       <c r="E16" s="14" t="s">
         <v>23</v>
@@ -4220,10 +4223,10 @@
       <c r="HS16" s="7"/>
     </row>
     <row r="17" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="61" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="55">
@@ -4310,8 +4313,8 @@
       <c r="HS17" s="7"/>
     </row>
     <row r="18" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="53">
         <v>2.2000000000000002</v>
       </c>
@@ -4391,8 +4394,8 @@
       <c r="HS18" s="7"/>
     </row>
     <row r="19" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="53">
         <v>2.2999999999999998</v>
       </c>
@@ -4472,8 +4475,8 @@
       <c r="HS19" s="7"/>
     </row>
     <row r="20" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="65"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="53">
         <v>2.4</v>
       </c>
@@ -4553,8 +4556,8 @@
       <c r="HS20" s="7"/>
     </row>
     <row r="21" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="68"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="53">
         <v>2.5</v>
       </c>
@@ -4634,8 +4637,8 @@
       <c r="HS21" s="7"/>
     </row>
     <row r="22" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="53">
         <v>2.6</v>
       </c>
@@ -4715,8 +4718,8 @@
       <c r="HS22" s="7"/>
     </row>
     <row r="23" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="68"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="53">
         <v>2.7</v>
       </c>
@@ -4796,8 +4799,8 @@
       <c r="HS23" s="7"/>
     </row>
     <row r="24" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="53">
         <v>2.8</v>
       </c>
@@ -4877,8 +4880,8 @@
       <c r="HS24" s="7"/>
     </row>
     <row r="25" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="53">
         <v>2.9</v>
       </c>
@@ -4958,8 +4961,8 @@
       <c r="HS25" s="7"/>
     </row>
     <row r="26" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="69"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="52"/>
       <c r="E26" s="14" t="s">
         <v>23</v>
@@ -5039,10 +5042,10 @@
       <c r="HS26" s="7"/>
     </row>
     <row r="27" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="61" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="55">
@@ -5124,8 +5127,8 @@
       <c r="HS27" s="7"/>
     </row>
     <row r="28" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="68"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="53">
         <v>3.2</v>
       </c>
@@ -5205,8 +5208,8 @@
       <c r="HS28" s="7"/>
     </row>
     <row r="29" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="68"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="53">
         <v>3.3</v>
       </c>
@@ -5286,8 +5289,8 @@
       <c r="HS29" s="7"/>
     </row>
     <row r="30" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="68"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="53">
         <v>3.4</v>
       </c>
@@ -5367,8 +5370,8 @@
       <c r="HS30" s="7"/>
     </row>
     <row r="31" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="68"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="53">
         <v>3.5</v>
       </c>
@@ -5448,8 +5451,8 @@
       <c r="HS31" s="7"/>
     </row>
     <row r="32" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="68"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="53">
         <v>3.6</v>
       </c>
@@ -5529,8 +5532,8 @@
       <c r="HS32" s="7"/>
     </row>
     <row r="33" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="68"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="53">
         <v>3.7</v>
       </c>
@@ -5610,8 +5613,8 @@
       <c r="HS33" s="7"/>
     </row>
     <row r="34" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="68"/>
-      <c r="C34" s="65"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="53">
         <v>3.8</v>
       </c>
@@ -5691,8 +5694,8 @@
       <c r="HS34" s="7"/>
     </row>
     <row r="35" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="68"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="53">
         <v>3.9</v>
       </c>
@@ -5772,8 +5775,8 @@
       <c r="HS35" s="7"/>
     </row>
     <row r="36" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="69"/>
-      <c r="C36" s="66"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="52"/>
       <c r="E36" s="14" t="s">
         <v>23</v>
@@ -5853,10 +5856,10 @@
       <c r="HS36" s="7"/>
     </row>
     <row r="37" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="55">
@@ -5938,8 +5941,8 @@
       <c r="HS37" s="7"/>
     </row>
     <row r="38" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="68"/>
-      <c r="C38" s="65"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="53">
         <v>4.2</v>
       </c>
@@ -6019,8 +6022,8 @@
       <c r="HS38" s="7"/>
     </row>
     <row r="39" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="68"/>
-      <c r="C39" s="65"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="53">
         <v>4.3</v>
       </c>
@@ -6100,8 +6103,8 @@
       <c r="HS39" s="7"/>
     </row>
     <row r="40" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="68"/>
-      <c r="C40" s="65"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="53">
         <v>4.4000000000000004</v>
       </c>
@@ -6181,8 +6184,8 @@
       <c r="HS40" s="7"/>
     </row>
     <row r="41" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="68"/>
-      <c r="C41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="53">
         <v>4.5</v>
       </c>
@@ -6262,8 +6265,8 @@
       <c r="HS41" s="7"/>
     </row>
     <row r="42" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="68"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="53">
         <v>4.5999999999999996</v>
       </c>
@@ -6343,8 +6346,8 @@
       <c r="HS42" s="7"/>
     </row>
     <row r="43" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="68"/>
-      <c r="C43" s="65"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="53">
         <v>4.7</v>
       </c>
@@ -6424,8 +6427,8 @@
       <c r="HS43" s="7"/>
     </row>
     <row r="44" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="68"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="53">
         <v>4.8</v>
       </c>
@@ -6505,8 +6508,8 @@
       <c r="HS44" s="7"/>
     </row>
     <row r="45" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="68"/>
-      <c r="C45" s="65"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="53">
         <v>4.9000000000000004</v>
       </c>
@@ -6586,8 +6589,8 @@
       <c r="HS45" s="7"/>
     </row>
     <row r="46" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="68"/>
-      <c r="C46" s="65"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="54">
         <v>4.0999999999999996</v>
       </c>
@@ -6667,8 +6670,8 @@
       <c r="HS46" s="7"/>
     </row>
     <row r="47" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="69"/>
-      <c r="C47" s="66"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="52"/>
       <c r="E47" s="14" t="s">
         <v>23</v>
@@ -6748,10 +6751,10 @@
       <c r="HS47" s="7"/>
     </row>
     <row r="48" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="61" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="55">
@@ -6833,8 +6836,8 @@
       <c r="HS48" s="7"/>
     </row>
     <row r="49" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="68"/>
-      <c r="C49" s="65"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="53">
         <v>5.2</v>
       </c>
@@ -6914,8 +6917,8 @@
       <c r="HS49" s="7"/>
     </row>
     <row r="50" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="68"/>
-      <c r="C50" s="65"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="53">
         <v>5.3</v>
       </c>
@@ -6995,8 +6998,8 @@
       <c r="HS50" s="7"/>
     </row>
     <row r="51" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="68"/>
-      <c r="C51" s="65"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="53">
         <v>5.4</v>
       </c>
@@ -7076,8 +7079,8 @@
       <c r="HS51" s="7"/>
     </row>
     <row r="52" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="68"/>
-      <c r="C52" s="65"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="53">
         <v>5.5</v>
       </c>
@@ -7157,8 +7160,8 @@
       <c r="HS52" s="7"/>
     </row>
     <row r="53" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="68"/>
-      <c r="C53" s="65"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="53">
         <v>5.6</v>
       </c>
@@ -7238,8 +7241,8 @@
       <c r="HS53" s="7"/>
     </row>
     <row r="54" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="68"/>
-      <c r="C54" s="65"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="53">
         <v>5.7</v>
       </c>
@@ -7319,8 +7322,8 @@
       <c r="HS54" s="7"/>
     </row>
     <row r="55" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="68"/>
-      <c r="C55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="53">
         <v>5.8</v>
       </c>
@@ -7400,8 +7403,8 @@
       <c r="HS55" s="7"/>
     </row>
     <row r="56" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="68"/>
-      <c r="C56" s="65"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="53">
         <v>5.9</v>
       </c>
@@ -7481,8 +7484,8 @@
       <c r="HS56" s="7"/>
     </row>
     <row r="57" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="69"/>
-      <c r="C57" s="66"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="52"/>
       <c r="E57" s="14" t="s">
         <v>23</v>
@@ -7562,10 +7565,10 @@
       <c r="HS57" s="7"/>
     </row>
     <row r="58" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="C58" s="61" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="55">
@@ -7647,8 +7650,8 @@
       <c r="HS58" s="7"/>
     </row>
     <row r="59" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="68"/>
-      <c r="C59" s="65"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="53">
         <v>6.2</v>
       </c>
@@ -7728,8 +7731,8 @@
       <c r="HS59" s="7"/>
     </row>
     <row r="60" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="68"/>
-      <c r="C60" s="65"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="59"/>
       <c r="D60" s="53">
         <v>6.3</v>
       </c>
@@ -7809,8 +7812,8 @@
       <c r="HS60" s="7"/>
     </row>
     <row r="61" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="68"/>
-      <c r="C61" s="65"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="53">
         <v>6.4</v>
       </c>
@@ -7890,8 +7893,8 @@
       <c r="HS61" s="7"/>
     </row>
     <row r="62" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="68"/>
-      <c r="C62" s="65"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="59"/>
       <c r="D62" s="53">
         <v>6.5</v>
       </c>
@@ -7971,8 +7974,8 @@
       <c r="HS62" s="7"/>
     </row>
     <row r="63" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="68"/>
-      <c r="C63" s="65"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="53">
         <v>6.6</v>
       </c>
@@ -8052,8 +8055,8 @@
       <c r="HS63" s="7"/>
     </row>
     <row r="64" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="68"/>
-      <c r="C64" s="65"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="53">
         <v>6.7</v>
       </c>
@@ -8133,8 +8136,8 @@
       <c r="HS64" s="7"/>
     </row>
     <row r="65" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="68"/>
-      <c r="C65" s="65"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="53">
         <v>6.8</v>
       </c>
@@ -8214,8 +8217,8 @@
       <c r="HS65" s="7"/>
     </row>
     <row r="66" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="68"/>
-      <c r="C66" s="65"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="59"/>
       <c r="D66" s="53">
         <v>6.9</v>
       </c>
@@ -8295,8 +8298,8 @@
       <c r="HS66" s="7"/>
     </row>
     <row r="67" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="69"/>
-      <c r="C67" s="66"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="52"/>
       <c r="E67" s="14" t="s">
         <v>23</v>
@@ -8376,10 +8379,10 @@
       <c r="HS67" s="7"/>
     </row>
     <row r="68" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="67" t="s">
+      <c r="B68" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="61" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="55">
@@ -8461,8 +8464,8 @@
       <c r="HS68" s="7"/>
     </row>
     <row r="69" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="68"/>
-      <c r="C69" s="65"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="53">
         <v>7.2</v>
       </c>
@@ -8542,8 +8545,8 @@
       <c r="HS69" s="7"/>
     </row>
     <row r="70" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="68"/>
-      <c r="C70" s="65"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="59"/>
       <c r="D70" s="53">
         <v>7.3</v>
       </c>
@@ -8623,8 +8626,8 @@
       <c r="HS70" s="7"/>
     </row>
     <row r="71" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="68"/>
-      <c r="C71" s="65"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="53">
         <v>7.4</v>
       </c>
@@ -8704,8 +8707,8 @@
       <c r="HS71" s="7"/>
     </row>
     <row r="72" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="68"/>
-      <c r="C72" s="65"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="59"/>
       <c r="D72" s="53">
         <v>7.5</v>
       </c>
@@ -8785,8 +8788,8 @@
       <c r="HS72" s="7"/>
     </row>
     <row r="73" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="68"/>
-      <c r="C73" s="65"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="59"/>
       <c r="D73" s="53">
         <v>7.6</v>
       </c>
@@ -8866,8 +8869,8 @@
       <c r="HS73" s="7"/>
     </row>
     <row r="74" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="68"/>
-      <c r="C74" s="65"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="53">
         <v>7.7</v>
       </c>
@@ -8947,8 +8950,8 @@
       <c r="HS74" s="7"/>
     </row>
     <row r="75" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="68"/>
-      <c r="C75" s="65"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="59"/>
       <c r="D75" s="53">
         <v>7.8</v>
       </c>
@@ -9028,8 +9031,8 @@
       <c r="HS75" s="7"/>
     </row>
     <row r="76" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="68"/>
-      <c r="C76" s="65"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="59"/>
       <c r="D76" s="53">
         <v>7.9</v>
       </c>
@@ -9109,8 +9112,8 @@
       <c r="HS76" s="7"/>
     </row>
     <row r="77" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="69"/>
-      <c r="C77" s="66"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="52"/>
       <c r="E77" s="14" t="s">
         <v>23</v>
@@ -9190,10 +9193,10 @@
       <c r="HS77" s="7"/>
     </row>
     <row r="78" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="61" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="55">
@@ -9275,8 +9278,8 @@
       <c r="HS78" s="7"/>
     </row>
     <row r="79" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="62"/>
-      <c r="C79" s="65"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="59"/>
       <c r="D79" s="53">
         <v>7.2</v>
       </c>
@@ -9356,8 +9359,8 @@
       <c r="HS79" s="7"/>
     </row>
     <row r="80" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="62"/>
-      <c r="C80" s="65"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="53">
         <v>7.3</v>
       </c>
@@ -9437,8 +9440,8 @@
       <c r="HS80" s="7"/>
     </row>
     <row r="81" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="62"/>
-      <c r="C81" s="65"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="59"/>
       <c r="D81" s="53">
         <v>7.4</v>
       </c>
@@ -9518,8 +9521,8 @@
       <c r="HS81" s="7"/>
     </row>
     <row r="82" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="62"/>
-      <c r="C82" s="65"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="59"/>
       <c r="D82" s="53">
         <v>7.5</v>
       </c>
@@ -9599,8 +9602,8 @@
       <c r="HS82" s="7"/>
     </row>
     <row r="83" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="62"/>
-      <c r="C83" s="65"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="59"/>
       <c r="D83" s="53">
         <v>7.6</v>
       </c>
@@ -9680,8 +9683,8 @@
       <c r="HS83" s="7"/>
     </row>
     <row r="84" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="62"/>
-      <c r="C84" s="65"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="59"/>
       <c r="D84" s="53">
         <v>7.7</v>
       </c>
@@ -9761,8 +9764,8 @@
       <c r="HS84" s="7"/>
     </row>
     <row r="85" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="62"/>
-      <c r="C85" s="65"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="59"/>
       <c r="D85" s="53">
         <v>7.8</v>
       </c>
@@ -9842,8 +9845,8 @@
       <c r="HS85" s="7"/>
     </row>
     <row r="86" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="62"/>
-      <c r="C86" s="65"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="59"/>
       <c r="D86" s="53">
         <v>7.9</v>
       </c>
@@ -9923,8 +9926,8 @@
       <c r="HS86" s="7"/>
     </row>
     <row r="87" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="63"/>
-      <c r="C87" s="66"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="60"/>
       <c r="D87" s="52"/>
       <c r="E87" s="14" t="s">
         <v>23</v>
@@ -10993,12 +10996,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="B6:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="S1:W1"/>
@@ -11015,6 +11012,12 @@
     <mergeCell ref="B37:B47"/>
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="C48:C57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="43">
   <si>
     <t>1.</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Rewrite the code, adapted to local database / tables - builded before</t>
+  </si>
+  <si>
+    <t>Filter the empty fields in log-in form, with proper messages to user</t>
   </si>
 </sst>
 </file>
@@ -592,24 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -623,6 +608,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,7 +946,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -971,32 +974,32 @@
       <c r="I1" s="71"/>
       <c r="J1" s="23"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="25"/>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="26"/>
-      <c r="Z1" s="65" t="s">
+      <c r="Z1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="66"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="60"/>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21"/>
       <c r="AH1" s="22"/>
@@ -1720,7 +1723,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1772,7 +1775,7 @@
       </c>
       <c r="S4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T4" s="40">
         <f t="shared" si="0"/>
@@ -3289,10 +3292,10 @@
       </c>
     </row>
     <row r="6" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="45">
@@ -3379,8 +3382,8 @@
       <c r="HS6" s="7"/>
     </row>
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="53">
         <v>1.2</v>
       </c>
@@ -3465,8 +3468,8 @@
       <c r="HS7" s="7"/>
     </row>
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="63"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="53">
         <v>1.3</v>
       </c>
@@ -3551,8 +3554,8 @@
       <c r="HS8" s="7"/>
     </row>
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="63"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="53">
         <v>1.4</v>
       </c>
@@ -3637,8 +3640,8 @@
       <c r="HS9" s="7"/>
     </row>
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="53">
         <v>1.5</v>
       </c>
@@ -3723,8 +3726,8 @@
       <c r="HS10" s="7"/>
     </row>
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="63"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="53">
         <v>1.6</v>
       </c>
@@ -3811,8 +3814,8 @@
       <c r="HS11" s="7"/>
     </row>
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="63"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="53">
         <v>1.7</v>
       </c>
@@ -3899,8 +3902,8 @@
       <c r="HS12" s="7"/>
     </row>
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="63"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="53">
         <v>1.8</v>
       </c>
@@ -3980,8 +3983,8 @@
       <c r="HS13" s="7"/>
     </row>
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="63"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="53">
         <v>1.9</v>
       </c>
@@ -4061,8 +4064,8 @@
       <c r="HS14" s="7"/>
     </row>
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="63"/>
-      <c r="C15" s="59"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="54">
         <v>1.1000000000000001</v>
       </c>
@@ -4142,8 +4145,8 @@
       <c r="HS15" s="7"/>
     </row>
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="64"/>
-      <c r="C16" s="60"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="52"/>
       <c r="E16" s="14" t="s">
         <v>23</v>
@@ -4223,10 +4226,10 @@
       <c r="HS16" s="7"/>
     </row>
     <row r="17" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="55">
@@ -4313,8 +4316,8 @@
       <c r="HS17" s="7"/>
     </row>
     <row r="18" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="53">
         <v>2.2000000000000002</v>
       </c>
@@ -4394,8 +4397,8 @@
       <c r="HS18" s="7"/>
     </row>
     <row r="19" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="53">
         <v>2.2999999999999998</v>
       </c>
@@ -4475,8 +4478,8 @@
       <c r="HS19" s="7"/>
     </row>
     <row r="20" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="53">
         <v>2.4</v>
       </c>
@@ -4556,8 +4559,8 @@
       <c r="HS20" s="7"/>
     </row>
     <row r="21" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="53">
         <v>2.5</v>
       </c>
@@ -4637,8 +4640,8 @@
       <c r="HS21" s="7"/>
     </row>
     <row r="22" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="59"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="53">
         <v>2.6</v>
       </c>
@@ -4718,8 +4721,8 @@
       <c r="HS22" s="7"/>
     </row>
     <row r="23" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="59"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="53">
         <v>2.7</v>
       </c>
@@ -4799,8 +4802,8 @@
       <c r="HS23" s="7"/>
     </row>
     <row r="24" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="53">
         <v>2.8</v>
       </c>
@@ -4880,8 +4883,8 @@
       <c r="HS24" s="7"/>
     </row>
     <row r="25" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="59"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="53">
         <v>2.9</v>
       </c>
@@ -4961,8 +4964,8 @@
       <c r="HS25" s="7"/>
     </row>
     <row r="26" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="64"/>
-      <c r="C26" s="60"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="52"/>
       <c r="E26" s="14" t="s">
         <v>23</v>
@@ -5042,25 +5045,30 @@
       <c r="HS26" s="7"/>
     </row>
     <row r="27" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="64" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="55">
         <v>3.1</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="F27" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="9"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
+      <c r="S27" s="1">
+        <v>3</v>
+      </c>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="AD27" s="7"/>
@@ -5127,8 +5135,8 @@
       <c r="HS27" s="7"/>
     </row>
     <row r="28" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="63"/>
-      <c r="C28" s="59"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="53">
         <v>3.2</v>
       </c>
@@ -5208,8 +5216,8 @@
       <c r="HS28" s="7"/>
     </row>
     <row r="29" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="63"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="53">
         <v>3.3</v>
       </c>
@@ -5289,8 +5297,8 @@
       <c r="HS29" s="7"/>
     </row>
     <row r="30" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="63"/>
-      <c r="C30" s="59"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="53">
         <v>3.4</v>
       </c>
@@ -5370,8 +5378,8 @@
       <c r="HS30" s="7"/>
     </row>
     <row r="31" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="63"/>
-      <c r="C31" s="59"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="53">
         <v>3.5</v>
       </c>
@@ -5451,8 +5459,8 @@
       <c r="HS31" s="7"/>
     </row>
     <row r="32" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="59"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="53">
         <v>3.6</v>
       </c>
@@ -5532,8 +5540,8 @@
       <c r="HS32" s="7"/>
     </row>
     <row r="33" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="63"/>
-      <c r="C33" s="59"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="53">
         <v>3.7</v>
       </c>
@@ -5613,8 +5621,8 @@
       <c r="HS33" s="7"/>
     </row>
     <row r="34" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="59"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="53">
         <v>3.8</v>
       </c>
@@ -5694,8 +5702,8 @@
       <c r="HS34" s="7"/>
     </row>
     <row r="35" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
-      <c r="C35" s="59"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="53">
         <v>3.9</v>
       </c>
@@ -5775,8 +5783,8 @@
       <c r="HS35" s="7"/>
     </row>
     <row r="36" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="64"/>
-      <c r="C36" s="60"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="52"/>
       <c r="E36" s="14" t="s">
         <v>23</v>
@@ -5856,10 +5864,10 @@
       <c r="HS36" s="7"/>
     </row>
     <row r="37" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="64" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="55">
@@ -5941,8 +5949,8 @@
       <c r="HS37" s="7"/>
     </row>
     <row r="38" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
-      <c r="C38" s="59"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="53">
         <v>4.2</v>
       </c>
@@ -6022,8 +6030,8 @@
       <c r="HS38" s="7"/>
     </row>
     <row r="39" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="63"/>
-      <c r="C39" s="59"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="53">
         <v>4.3</v>
       </c>
@@ -6103,8 +6111,8 @@
       <c r="HS39" s="7"/>
     </row>
     <row r="40" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="63"/>
-      <c r="C40" s="59"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="53">
         <v>4.4000000000000004</v>
       </c>
@@ -6184,8 +6192,8 @@
       <c r="HS40" s="7"/>
     </row>
     <row r="41" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="63"/>
-      <c r="C41" s="59"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="53">
         <v>4.5</v>
       </c>
@@ -6265,8 +6273,8 @@
       <c r="HS41" s="7"/>
     </row>
     <row r="42" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="59"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="53">
         <v>4.5999999999999996</v>
       </c>
@@ -6346,8 +6354,8 @@
       <c r="HS42" s="7"/>
     </row>
     <row r="43" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="59"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="53">
         <v>4.7</v>
       </c>
@@ -6427,8 +6435,8 @@
       <c r="HS43" s="7"/>
     </row>
     <row r="44" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="63"/>
-      <c r="C44" s="59"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="53">
         <v>4.8</v>
       </c>
@@ -6508,8 +6516,8 @@
       <c r="HS44" s="7"/>
     </row>
     <row r="45" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="63"/>
-      <c r="C45" s="59"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="53">
         <v>4.9000000000000004</v>
       </c>
@@ -6589,8 +6597,8 @@
       <c r="HS45" s="7"/>
     </row>
     <row r="46" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="63"/>
-      <c r="C46" s="59"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="54">
         <v>4.0999999999999996</v>
       </c>
@@ -6670,8 +6678,8 @@
       <c r="HS46" s="7"/>
     </row>
     <row r="47" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="64"/>
-      <c r="C47" s="60"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="52"/>
       <c r="E47" s="14" t="s">
         <v>23</v>
@@ -6751,10 +6759,10 @@
       <c r="HS47" s="7"/>
     </row>
     <row r="48" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="64" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="55">
@@ -6836,8 +6844,8 @@
       <c r="HS48" s="7"/>
     </row>
     <row r="49" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
-      <c r="C49" s="59"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="53">
         <v>5.2</v>
       </c>
@@ -6917,8 +6925,8 @@
       <c r="HS49" s="7"/>
     </row>
     <row r="50" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="63"/>
-      <c r="C50" s="59"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="53">
         <v>5.3</v>
       </c>
@@ -6998,8 +7006,8 @@
       <c r="HS50" s="7"/>
     </row>
     <row r="51" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="63"/>
-      <c r="C51" s="59"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="53">
         <v>5.4</v>
       </c>
@@ -7079,8 +7087,8 @@
       <c r="HS51" s="7"/>
     </row>
     <row r="52" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
-      <c r="C52" s="59"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="53">
         <v>5.5</v>
       </c>
@@ -7160,8 +7168,8 @@
       <c r="HS52" s="7"/>
     </row>
     <row r="53" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="63"/>
-      <c r="C53" s="59"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="53">
         <v>5.6</v>
       </c>
@@ -7241,8 +7249,8 @@
       <c r="HS53" s="7"/>
     </row>
     <row r="54" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="63"/>
-      <c r="C54" s="59"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="53">
         <v>5.7</v>
       </c>
@@ -7322,8 +7330,8 @@
       <c r="HS54" s="7"/>
     </row>
     <row r="55" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="63"/>
-      <c r="C55" s="59"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="53">
         <v>5.8</v>
       </c>
@@ -7403,8 +7411,8 @@
       <c r="HS55" s="7"/>
     </row>
     <row r="56" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="63"/>
-      <c r="C56" s="59"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="53">
         <v>5.9</v>
       </c>
@@ -7484,8 +7492,8 @@
       <c r="HS56" s="7"/>
     </row>
     <row r="57" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="64"/>
-      <c r="C57" s="60"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="52"/>
       <c r="E57" s="14" t="s">
         <v>23</v>
@@ -7565,10 +7573,10 @@
       <c r="HS57" s="7"/>
     </row>
     <row r="58" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="61" t="s">
+      <c r="C58" s="64" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="55">
@@ -7650,8 +7658,8 @@
       <c r="HS58" s="7"/>
     </row>
     <row r="59" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="63"/>
-      <c r="C59" s="59"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="53">
         <v>6.2</v>
       </c>
@@ -7731,8 +7739,8 @@
       <c r="HS59" s="7"/>
     </row>
     <row r="60" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="63"/>
-      <c r="C60" s="59"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="53">
         <v>6.3</v>
       </c>
@@ -7812,8 +7820,8 @@
       <c r="HS60" s="7"/>
     </row>
     <row r="61" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="63"/>
-      <c r="C61" s="59"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="53">
         <v>6.4</v>
       </c>
@@ -7893,8 +7901,8 @@
       <c r="HS61" s="7"/>
     </row>
     <row r="62" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="63"/>
-      <c r="C62" s="59"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="53">
         <v>6.5</v>
       </c>
@@ -7974,8 +7982,8 @@
       <c r="HS62" s="7"/>
     </row>
     <row r="63" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="63"/>
-      <c r="C63" s="59"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="53">
         <v>6.6</v>
       </c>
@@ -8055,8 +8063,8 @@
       <c r="HS63" s="7"/>
     </row>
     <row r="64" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="63"/>
-      <c r="C64" s="59"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="53">
         <v>6.7</v>
       </c>
@@ -8136,8 +8144,8 @@
       <c r="HS64" s="7"/>
     </row>
     <row r="65" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="63"/>
-      <c r="C65" s="59"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="53">
         <v>6.8</v>
       </c>
@@ -8217,8 +8225,8 @@
       <c r="HS65" s="7"/>
     </row>
     <row r="66" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="63"/>
-      <c r="C66" s="59"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="53">
         <v>6.9</v>
       </c>
@@ -8298,8 +8306,8 @@
       <c r="HS66" s="7"/>
     </row>
     <row r="67" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="64"/>
-      <c r="C67" s="60"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="52"/>
       <c r="E67" s="14" t="s">
         <v>23</v>
@@ -8379,10 +8387,10 @@
       <c r="HS67" s="7"/>
     </row>
     <row r="68" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="61" t="s">
+      <c r="C68" s="64" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="55">
@@ -8464,8 +8472,8 @@
       <c r="HS68" s="7"/>
     </row>
     <row r="69" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="63"/>
-      <c r="C69" s="59"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="53">
         <v>7.2</v>
       </c>
@@ -8545,8 +8553,8 @@
       <c r="HS69" s="7"/>
     </row>
     <row r="70" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="63"/>
-      <c r="C70" s="59"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="53">
         <v>7.3</v>
       </c>
@@ -8626,8 +8634,8 @@
       <c r="HS70" s="7"/>
     </row>
     <row r="71" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="63"/>
-      <c r="C71" s="59"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="53">
         <v>7.4</v>
       </c>
@@ -8707,8 +8715,8 @@
       <c r="HS71" s="7"/>
     </row>
     <row r="72" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="63"/>
-      <c r="C72" s="59"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="53">
         <v>7.5</v>
       </c>
@@ -8788,8 +8796,8 @@
       <c r="HS72" s="7"/>
     </row>
     <row r="73" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
-      <c r="C73" s="59"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="53">
         <v>7.6</v>
       </c>
@@ -8869,8 +8877,8 @@
       <c r="HS73" s="7"/>
     </row>
     <row r="74" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="63"/>
-      <c r="C74" s="59"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="53">
         <v>7.7</v>
       </c>
@@ -8950,8 +8958,8 @@
       <c r="HS74" s="7"/>
     </row>
     <row r="75" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="63"/>
-      <c r="C75" s="59"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="53">
         <v>7.8</v>
       </c>
@@ -9031,8 +9039,8 @@
       <c r="HS75" s="7"/>
     </row>
     <row r="76" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="63"/>
-      <c r="C76" s="59"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="53">
         <v>7.9</v>
       </c>
@@ -9112,8 +9120,8 @@
       <c r="HS76" s="7"/>
     </row>
     <row r="77" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="64"/>
-      <c r="C77" s="60"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="52"/>
       <c r="E77" s="14" t="s">
         <v>23</v>
@@ -9193,10 +9201,10 @@
       <c r="HS77" s="7"/>
     </row>
     <row r="78" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="67" t="s">
+      <c r="B78" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="61" t="s">
+      <c r="C78" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="55">
@@ -9278,8 +9286,8 @@
       <c r="HS78" s="7"/>
     </row>
     <row r="79" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="68"/>
-      <c r="C79" s="59"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="53">
         <v>7.2</v>
       </c>
@@ -9359,8 +9367,8 @@
       <c r="HS79" s="7"/>
     </row>
     <row r="80" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="68"/>
-      <c r="C80" s="59"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="65"/>
       <c r="D80" s="53">
         <v>7.3</v>
       </c>
@@ -9440,8 +9448,8 @@
       <c r="HS80" s="7"/>
     </row>
     <row r="81" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="68"/>
-      <c r="C81" s="59"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="65"/>
       <c r="D81" s="53">
         <v>7.4</v>
       </c>
@@ -9521,8 +9529,8 @@
       <c r="HS81" s="7"/>
     </row>
     <row r="82" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="68"/>
-      <c r="C82" s="59"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="65"/>
       <c r="D82" s="53">
         <v>7.5</v>
       </c>
@@ -9602,8 +9610,8 @@
       <c r="HS82" s="7"/>
     </row>
     <row r="83" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="68"/>
-      <c r="C83" s="59"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="65"/>
       <c r="D83" s="53">
         <v>7.6</v>
       </c>
@@ -9683,8 +9691,8 @@
       <c r="HS83" s="7"/>
     </row>
     <row r="84" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="68"/>
-      <c r="C84" s="59"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="65"/>
       <c r="D84" s="53">
         <v>7.7</v>
       </c>
@@ -9764,8 +9772,8 @@
       <c r="HS84" s="7"/>
     </row>
     <row r="85" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="68"/>
-      <c r="C85" s="59"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="65"/>
       <c r="D85" s="53">
         <v>7.8</v>
       </c>
@@ -9845,8 +9853,8 @@
       <c r="HS85" s="7"/>
     </row>
     <row r="86" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="68"/>
-      <c r="C86" s="59"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="65"/>
       <c r="D86" s="53">
         <v>7.9</v>
       </c>
@@ -9926,8 +9934,8 @@
       <c r="HS86" s="7"/>
     </row>
     <row r="87" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="69"/>
-      <c r="C87" s="60"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="66"/>
       <c r="D87" s="52"/>
       <c r="E87" s="14" t="s">
         <v>23</v>
@@ -10996,6 +11004,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="B6:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="S1:W1"/>
@@ -11012,12 +11026,6 @@
     <mergeCell ref="B37:B47"/>
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="C48:C57"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="22995" windowHeight="12525" tabRatio="163"/>
+    <workbookView xWindow="2205" yWindow="-105" windowWidth="19590" windowHeight="12525" tabRatio="163"/>
   </bookViews>
   <sheets>
     <sheet name="Time sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="57">
   <si>
     <t>1.</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Create main MVC structure</t>
   </si>
   <si>
-    <t>Create main page</t>
-  </si>
-  <si>
     <t>Create MVC structure</t>
   </si>
   <si>
@@ -174,6 +171,51 @@
   </si>
   <si>
     <t>Filter the empty fields in log-in form, with proper messages to user</t>
+  </si>
+  <si>
+    <t>Create main / home page - not logged in</t>
+  </si>
+  <si>
+    <t>Create functional links to proper pages on site, form header menu</t>
+  </si>
+  <si>
+    <t>Design the log-in form - consider type of possible user</t>
+  </si>
+  <si>
+    <t>Log-in form validation - existing records in DB - user / pw</t>
+  </si>
+  <si>
+    <t>Design sing up form - student</t>
+  </si>
+  <si>
+    <t>Design sing up form - parent</t>
+  </si>
+  <si>
+    <t>Design sing up form - professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show info about user after log-in: name / lastname / </t>
+  </si>
+  <si>
+    <t>Prof. page: insert button to record individual notes</t>
+  </si>
+  <si>
+    <t>Prof. page: add drop-down menu for fields - Clasa, Semestru, nota</t>
+  </si>
+  <si>
+    <t>Customized header / professor user: record notes feature</t>
+  </si>
+  <si>
+    <t>Header logged in: button "logout" instead of "login"</t>
+  </si>
+  <si>
+    <t>Assure functionality for DB interogations - from diff. pages on site</t>
+  </si>
+  <si>
+    <t>Develop MVC structure</t>
+  </si>
+  <si>
+    <t>Working on project time-sheet</t>
   </si>
 </sst>
 </file>
@@ -946,7 +988,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
+      <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1765,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1779,7 +1821,7 @@
       </c>
       <c r="T4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U4" s="40">
         <f t="shared" si="0"/>
@@ -3560,7 +3602,7 @@
         <v>1.4</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="38">
         <f t="shared" si="4"/>
@@ -3646,7 +3688,7 @@
         <v>1.5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="38">
         <f t="shared" si="4"/>
@@ -3732,7 +3774,7 @@
         <v>1.6</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="38">
         <f t="shared" si="4"/>
@@ -3820,7 +3862,7 @@
         <v>1.7</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="38">
         <f t="shared" si="4"/>
@@ -3907,16 +3949,21 @@
       <c r="D13" s="53">
         <v>1.8</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="F13" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="L13" s="9"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
+      <c r="T13" s="1">
+        <v>2</v>
+      </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="AD13" s="7"/>
@@ -3988,7 +4035,9 @@
       <c r="D14" s="53">
         <v>1.9</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="F14" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4236,7 +4285,7 @@
         <v>2.1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="4"/>
@@ -4321,16 +4370,21 @@
       <c r="D18" s="53">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="L18" s="9"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
+      <c r="T18" s="1">
+        <v>2</v>
+      </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="AD18" s="7"/>
@@ -4402,7 +4456,9 @@
       <c r="D19" s="53">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="F19" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5055,7 +5111,7 @@
         <v>3.1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="4"/>
@@ -5221,7 +5277,9 @@
       <c r="D29" s="53">
         <v>3.3</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F29" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5302,7 +5360,9 @@
       <c r="D30" s="53">
         <v>3.4</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="F30" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5383,7 +5443,9 @@
       <c r="D31" s="53">
         <v>3.5</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="F31" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5464,7 +5526,9 @@
       <c r="D32" s="53">
         <v>3.6</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="F32" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5873,7 +5937,9 @@
       <c r="D37" s="55">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="F37" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5954,7 +6020,9 @@
       <c r="D38" s="53">
         <v>4.2</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="F38" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6035,7 +6103,9 @@
       <c r="D39" s="53">
         <v>4.3</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="F39" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6116,7 +6186,9 @@
       <c r="D40" s="53">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="F40" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6197,7 +6269,9 @@
       <c r="D41" s="53">
         <v>4.5</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="F41" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6768,7 +6842,9 @@
       <c r="D48" s="55">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E48" s="11"/>
+      <c r="E48" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="F48" s="37">
         <f t="shared" si="4"/>
         <v>0</v>

--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -176,9 +176,6 @@
     <t>Create main / home page - not logged in</t>
   </si>
   <si>
-    <t>Create functional links to proper pages on site, form header menu</t>
-  </si>
-  <si>
     <t>Design the log-in form - consider type of possible user</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Working on project time-sheet</t>
+  </si>
+  <si>
+    <t>Create functional links to proper pages on site, from header menu</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
   <dimension ref="A1:HT100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
+      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="U4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V4" s="40">
         <f t="shared" si="0"/>
@@ -3950,7 +3950,7 @@
         <v>1.8</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="38">
         <f t="shared" si="4"/>
@@ -4036,7 +4036,7 @@
         <v>1.9</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="38">
         <f t="shared" si="4"/>
@@ -4371,7 +4371,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F18" s="38">
         <f t="shared" si="4"/>
@@ -4457,7 +4457,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="38">
         <f t="shared" si="4"/>
@@ -5278,7 +5278,7 @@
         <v>3.3</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="38">
         <f t="shared" si="4"/>
@@ -5361,7 +5361,7 @@
         <v>3.4</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="38">
         <f t="shared" si="4"/>
@@ -5444,7 +5444,7 @@
         <v>3.5</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="38">
         <f t="shared" si="4"/>
@@ -5527,7 +5527,7 @@
         <v>3.6</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="38">
         <f t="shared" si="4"/>
@@ -5938,17 +5938,20 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="L37" s="9"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
+      <c r="U37" s="1">
+        <v>3</v>
+      </c>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="AD37" s="7"/>
@@ -6021,7 +6024,7 @@
         <v>4.2</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="38">
         <f t="shared" si="4"/>
@@ -6104,7 +6107,7 @@
         <v>4.3</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" s="38">
         <f t="shared" si="4"/>
@@ -6187,7 +6190,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="38">
         <f t="shared" si="4"/>
@@ -6270,17 +6273,20 @@
         <v>4.5</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="L41" s="9"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
       <c r="AD41" s="7"/>
@@ -6843,7 +6849,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="4"/>

--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="58">
   <si>
     <t>1.</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Design sing up form - professor</t>
   </si>
   <si>
-    <t xml:space="preserve">Show info about user after log-in: name / lastname / </t>
-  </si>
-  <si>
     <t>Prof. page: insert button to record individual notes</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>Create functional links to proper pages on site, from header menu</t>
+  </si>
+  <si>
+    <t>Change the code: Use $_SESSION variables, instead of sent data by URL</t>
+  </si>
+  <si>
+    <t>Show info about user after log-in: name / lastname / credentials …</t>
   </si>
 </sst>
 </file>
@@ -985,10 +988,10 @@
   <dimension ref="A1:HT100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1768,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1829,7 +1832,7 @@
       </c>
       <c r="V4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W4" s="41">
         <f t="shared" si="0"/>
@@ -3950,7 +3953,7 @@
         <v>1.8</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="38">
         <f t="shared" si="4"/>
@@ -4036,7 +4039,7 @@
         <v>1.9</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="38">
         <f t="shared" si="4"/>
@@ -4371,7 +4374,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="38">
         <f t="shared" si="4"/>
@@ -5196,16 +5199,21 @@
       <c r="D28" s="53">
         <v>3.2</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="F28" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="9"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
+      <c r="V28" s="1">
+        <v>3</v>
+      </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="AD28" s="7"/>
@@ -5938,11 +5946,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -5951,6 +5959,9 @@
       <c r="Q37" s="7"/>
       <c r="U37" s="1">
         <v>3</v>
+      </c>
+      <c r="V37" s="1">
+        <v>1</v>
       </c>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
@@ -6024,7 +6035,7 @@
         <v>4.2</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="38">
         <f t="shared" si="4"/>
@@ -6107,7 +6118,7 @@
         <v>4.3</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="38">
         <f t="shared" si="4"/>
@@ -6190,7 +6201,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40" s="38">
         <f t="shared" si="4"/>
@@ -6273,7 +6284,7 @@
         <v>4.5</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="38">
         <f t="shared" si="4"/>
@@ -6849,7 +6860,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="4"/>

--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -991,7 +991,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1832,11 +1832,11 @@
       </c>
       <c r="V4" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W4" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4" s="41">
         <f t="shared" si="0"/>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="F28" s="38">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -5212,9 +5212,11 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="V28" s="1">
-        <v>3</v>
-      </c>
-      <c r="W28" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="W28" s="7">
+        <v>2</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>

--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="59">
   <si>
     <t>1.</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Show info about user after log-in: name / lastname / credentials …</t>
+  </si>
+  <si>
+    <t>Repair problem: the session is dissapear during navigation</t>
   </si>
 </sst>
 </file>
@@ -640,6 +643,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -653,24 +674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -988,10 +991,10 @@
   <dimension ref="A1:HT100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X28" sqref="X28"/>
+      <selection pane="bottomRight" activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1019,32 +1022,32 @@
       <c r="I1" s="71"/>
       <c r="J1" s="23"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="25"/>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="26"/>
-      <c r="Z1" s="59" t="s">
+      <c r="Z1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="60"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="66"/>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21"/>
       <c r="AH1" s="22"/>
@@ -1768,7 +1771,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1836,11 +1839,11 @@
       </c>
       <c r="W4" s="41">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X4" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="40">
         <f t="shared" si="0"/>
@@ -3337,10 +3340,10 @@
       </c>
     </row>
     <row r="6" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="45">
@@ -3427,8 +3430,8 @@
       <c r="HS6" s="7"/>
     </row>
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="68"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="53">
         <v>1.2</v>
       </c>
@@ -3513,8 +3516,8 @@
       <c r="HS7" s="7"/>
     </row>
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="68"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="53">
         <v>1.3</v>
       </c>
@@ -3599,8 +3602,8 @@
       <c r="HS8" s="7"/>
     </row>
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="68"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="53">
         <v>1.4</v>
       </c>
@@ -3685,8 +3688,8 @@
       <c r="HS9" s="7"/>
     </row>
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="53">
         <v>1.5</v>
       </c>
@@ -3771,8 +3774,8 @@
       <c r="HS10" s="7"/>
     </row>
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="68"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="53">
         <v>1.6</v>
       </c>
@@ -3859,8 +3862,8 @@
       <c r="HS11" s="7"/>
     </row>
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="68"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="53">
         <v>1.7</v>
       </c>
@@ -3947,8 +3950,8 @@
       <c r="HS12" s="7"/>
     </row>
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
-      <c r="C13" s="65"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="53">
         <v>1.8</v>
       </c>
@@ -4033,8 +4036,8 @@
       <c r="HS13" s="7"/>
     </row>
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="68"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="53">
         <v>1.9</v>
       </c>
@@ -4116,8 +4119,8 @@
       <c r="HS14" s="7"/>
     </row>
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="68"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="54">
         <v>1.1000000000000001</v>
       </c>
@@ -4197,8 +4200,8 @@
       <c r="HS15" s="7"/>
     </row>
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="69"/>
-      <c r="C16" s="66"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="52"/>
       <c r="E16" s="14" t="s">
         <v>23</v>
@@ -4278,10 +4281,10 @@
       <c r="HS16" s="7"/>
     </row>
     <row r="17" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="61" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="55">
@@ -4368,8 +4371,8 @@
       <c r="HS17" s="7"/>
     </row>
     <row r="18" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="53">
         <v>2.2000000000000002</v>
       </c>
@@ -4454,8 +4457,8 @@
       <c r="HS18" s="7"/>
     </row>
     <row r="19" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="53">
         <v>2.2999999999999998</v>
       </c>
@@ -4537,8 +4540,8 @@
       <c r="HS19" s="7"/>
     </row>
     <row r="20" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="65"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="53">
         <v>2.4</v>
       </c>
@@ -4618,8 +4621,8 @@
       <c r="HS20" s="7"/>
     </row>
     <row r="21" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="68"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="53">
         <v>2.5</v>
       </c>
@@ -4699,8 +4702,8 @@
       <c r="HS21" s="7"/>
     </row>
     <row r="22" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="53">
         <v>2.6</v>
       </c>
@@ -4780,8 +4783,8 @@
       <c r="HS22" s="7"/>
     </row>
     <row r="23" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="68"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="53">
         <v>2.7</v>
       </c>
@@ -4861,8 +4864,8 @@
       <c r="HS23" s="7"/>
     </row>
     <row r="24" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="53">
         <v>2.8</v>
       </c>
@@ -4942,8 +4945,8 @@
       <c r="HS24" s="7"/>
     </row>
     <row r="25" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="53">
         <v>2.9</v>
       </c>
@@ -5023,8 +5026,8 @@
       <c r="HS25" s="7"/>
     </row>
     <row r="26" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="69"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="52"/>
       <c r="E26" s="14" t="s">
         <v>23</v>
@@ -5104,10 +5107,10 @@
       <c r="HS26" s="7"/>
     </row>
     <row r="27" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="61" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="55">
@@ -5194,8 +5197,8 @@
       <c r="HS27" s="7"/>
     </row>
     <row r="28" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="68"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="53">
         <v>3.2</v>
       </c>
@@ -5282,8 +5285,8 @@
       <c r="HS28" s="7"/>
     </row>
     <row r="29" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="68"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="53">
         <v>3.3</v>
       </c>
@@ -5365,8 +5368,8 @@
       <c r="HS29" s="7"/>
     </row>
     <row r="30" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="68"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="53">
         <v>3.4</v>
       </c>
@@ -5448,8 +5451,8 @@
       <c r="HS30" s="7"/>
     </row>
     <row r="31" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="68"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="53">
         <v>3.5</v>
       </c>
@@ -5531,8 +5534,8 @@
       <c r="HS31" s="7"/>
     </row>
     <row r="32" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="68"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="53">
         <v>3.6</v>
       </c>
@@ -5614,8 +5617,8 @@
       <c r="HS32" s="7"/>
     </row>
     <row r="33" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="68"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="53">
         <v>3.7</v>
       </c>
@@ -5695,8 +5698,8 @@
       <c r="HS33" s="7"/>
     </row>
     <row r="34" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="68"/>
-      <c r="C34" s="65"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="53">
         <v>3.8</v>
       </c>
@@ -5776,8 +5779,8 @@
       <c r="HS34" s="7"/>
     </row>
     <row r="35" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="68"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="53">
         <v>3.9</v>
       </c>
@@ -5857,8 +5860,8 @@
       <c r="HS35" s="7"/>
     </row>
     <row r="36" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="69"/>
-      <c r="C36" s="66"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="52"/>
       <c r="E36" s="14" t="s">
         <v>23</v>
@@ -5938,10 +5941,10 @@
       <c r="HS36" s="7"/>
     </row>
     <row r="37" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="55">
@@ -6031,8 +6034,8 @@
       <c r="HS37" s="7"/>
     </row>
     <row r="38" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="68"/>
-      <c r="C38" s="65"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="53">
         <v>4.2</v>
       </c>
@@ -6114,8 +6117,8 @@
       <c r="HS38" s="7"/>
     </row>
     <row r="39" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="68"/>
-      <c r="C39" s="65"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="53">
         <v>4.3</v>
       </c>
@@ -6197,8 +6200,8 @@
       <c r="HS39" s="7"/>
     </row>
     <row r="40" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="68"/>
-      <c r="C40" s="65"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="53">
         <v>4.4000000000000004</v>
       </c>
@@ -6280,8 +6283,8 @@
       <c r="HS40" s="7"/>
     </row>
     <row r="41" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="68"/>
-      <c r="C41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="53">
         <v>4.5</v>
       </c>
@@ -6366,23 +6369,29 @@
       <c r="HS41" s="7"/>
     </row>
     <row r="42" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="68"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="53">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="F42" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="L42" s="9"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
+      <c r="W42" s="7">
+        <v>2</v>
+      </c>
+      <c r="X42" s="7">
+        <v>2</v>
+      </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
       <c r="AK42" s="7"/>
@@ -6447,8 +6456,8 @@
       <c r="HS42" s="7"/>
     </row>
     <row r="43" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="68"/>
-      <c r="C43" s="65"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="53">
         <v>4.7</v>
       </c>
@@ -6528,8 +6537,8 @@
       <c r="HS43" s="7"/>
     </row>
     <row r="44" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="68"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="53">
         <v>4.8</v>
       </c>
@@ -6609,8 +6618,8 @@
       <c r="HS44" s="7"/>
     </row>
     <row r="45" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="68"/>
-      <c r="C45" s="65"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="53">
         <v>4.9000000000000004</v>
       </c>
@@ -6690,8 +6699,8 @@
       <c r="HS45" s="7"/>
     </row>
     <row r="46" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="68"/>
-      <c r="C46" s="65"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="54">
         <v>4.0999999999999996</v>
       </c>
@@ -6771,8 +6780,8 @@
       <c r="HS46" s="7"/>
     </row>
     <row r="47" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="69"/>
-      <c r="C47" s="66"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="52"/>
       <c r="E47" s="14" t="s">
         <v>23</v>
@@ -6852,10 +6861,10 @@
       <c r="HS47" s="7"/>
     </row>
     <row r="48" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="61" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="55">
@@ -6939,8 +6948,8 @@
       <c r="HS48" s="7"/>
     </row>
     <row r="49" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="68"/>
-      <c r="C49" s="65"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="53">
         <v>5.2</v>
       </c>
@@ -7020,8 +7029,8 @@
       <c r="HS49" s="7"/>
     </row>
     <row r="50" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="68"/>
-      <c r="C50" s="65"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="53">
         <v>5.3</v>
       </c>
@@ -7101,8 +7110,8 @@
       <c r="HS50" s="7"/>
     </row>
     <row r="51" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="68"/>
-      <c r="C51" s="65"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="53">
         <v>5.4</v>
       </c>
@@ -7182,8 +7191,8 @@
       <c r="HS51" s="7"/>
     </row>
     <row r="52" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="68"/>
-      <c r="C52" s="65"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="53">
         <v>5.5</v>
       </c>
@@ -7263,8 +7272,8 @@
       <c r="HS52" s="7"/>
     </row>
     <row r="53" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="68"/>
-      <c r="C53" s="65"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="53">
         <v>5.6</v>
       </c>
@@ -7344,8 +7353,8 @@
       <c r="HS53" s="7"/>
     </row>
     <row r="54" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="68"/>
-      <c r="C54" s="65"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="53">
         <v>5.7</v>
       </c>
@@ -7425,8 +7434,8 @@
       <c r="HS54" s="7"/>
     </row>
     <row r="55" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="68"/>
-      <c r="C55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="53">
         <v>5.8</v>
       </c>
@@ -7506,8 +7515,8 @@
       <c r="HS55" s="7"/>
     </row>
     <row r="56" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="68"/>
-      <c r="C56" s="65"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="53">
         <v>5.9</v>
       </c>
@@ -7587,8 +7596,8 @@
       <c r="HS56" s="7"/>
     </row>
     <row r="57" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="69"/>
-      <c r="C57" s="66"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="52"/>
       <c r="E57" s="14" t="s">
         <v>23</v>
@@ -7668,10 +7677,10 @@
       <c r="HS57" s="7"/>
     </row>
     <row r="58" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="C58" s="61" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="55">
@@ -7753,8 +7762,8 @@
       <c r="HS58" s="7"/>
     </row>
     <row r="59" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="68"/>
-      <c r="C59" s="65"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="53">
         <v>6.2</v>
       </c>
@@ -7834,8 +7843,8 @@
       <c r="HS59" s="7"/>
     </row>
     <row r="60" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="68"/>
-      <c r="C60" s="65"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="59"/>
       <c r="D60" s="53">
         <v>6.3</v>
       </c>
@@ -7915,8 +7924,8 @@
       <c r="HS60" s="7"/>
     </row>
     <row r="61" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="68"/>
-      <c r="C61" s="65"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="53">
         <v>6.4</v>
       </c>
@@ -7996,8 +8005,8 @@
       <c r="HS61" s="7"/>
     </row>
     <row r="62" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="68"/>
-      <c r="C62" s="65"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="59"/>
       <c r="D62" s="53">
         <v>6.5</v>
       </c>
@@ -8077,8 +8086,8 @@
       <c r="HS62" s="7"/>
     </row>
     <row r="63" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="68"/>
-      <c r="C63" s="65"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="53">
         <v>6.6</v>
       </c>
@@ -8158,8 +8167,8 @@
       <c r="HS63" s="7"/>
     </row>
     <row r="64" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="68"/>
-      <c r="C64" s="65"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="53">
         <v>6.7</v>
       </c>
@@ -8239,8 +8248,8 @@
       <c r="HS64" s="7"/>
     </row>
     <row r="65" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="68"/>
-      <c r="C65" s="65"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="53">
         <v>6.8</v>
       </c>
@@ -8320,8 +8329,8 @@
       <c r="HS65" s="7"/>
     </row>
     <row r="66" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="68"/>
-      <c r="C66" s="65"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="59"/>
       <c r="D66" s="53">
         <v>6.9</v>
       </c>
@@ -8401,8 +8410,8 @@
       <c r="HS66" s="7"/>
     </row>
     <row r="67" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="69"/>
-      <c r="C67" s="66"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="52"/>
       <c r="E67" s="14" t="s">
         <v>23</v>
@@ -8482,10 +8491,10 @@
       <c r="HS67" s="7"/>
     </row>
     <row r="68" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="67" t="s">
+      <c r="B68" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="61" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="55">
@@ -8567,8 +8576,8 @@
       <c r="HS68" s="7"/>
     </row>
     <row r="69" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="68"/>
-      <c r="C69" s="65"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="53">
         <v>7.2</v>
       </c>
@@ -8648,8 +8657,8 @@
       <c r="HS69" s="7"/>
     </row>
     <row r="70" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="68"/>
-      <c r="C70" s="65"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="59"/>
       <c r="D70" s="53">
         <v>7.3</v>
       </c>
@@ -8729,8 +8738,8 @@
       <c r="HS70" s="7"/>
     </row>
     <row r="71" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="68"/>
-      <c r="C71" s="65"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="53">
         <v>7.4</v>
       </c>
@@ -8810,8 +8819,8 @@
       <c r="HS71" s="7"/>
     </row>
     <row r="72" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="68"/>
-      <c r="C72" s="65"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="59"/>
       <c r="D72" s="53">
         <v>7.5</v>
       </c>
@@ -8891,8 +8900,8 @@
       <c r="HS72" s="7"/>
     </row>
     <row r="73" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="68"/>
-      <c r="C73" s="65"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="59"/>
       <c r="D73" s="53">
         <v>7.6</v>
       </c>
@@ -8972,8 +8981,8 @@
       <c r="HS73" s="7"/>
     </row>
     <row r="74" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="68"/>
-      <c r="C74" s="65"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="53">
         <v>7.7</v>
       </c>
@@ -9053,8 +9062,8 @@
       <c r="HS74" s="7"/>
     </row>
     <row r="75" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="68"/>
-      <c r="C75" s="65"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="59"/>
       <c r="D75" s="53">
         <v>7.8</v>
       </c>
@@ -9134,8 +9143,8 @@
       <c r="HS75" s="7"/>
     </row>
     <row r="76" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="68"/>
-      <c r="C76" s="65"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="59"/>
       <c r="D76" s="53">
         <v>7.9</v>
       </c>
@@ -9215,8 +9224,8 @@
       <c r="HS76" s="7"/>
     </row>
     <row r="77" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="69"/>
-      <c r="C77" s="66"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="52"/>
       <c r="E77" s="14" t="s">
         <v>23</v>
@@ -9296,10 +9305,10 @@
       <c r="HS77" s="7"/>
     </row>
     <row r="78" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="61" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="55">
@@ -9381,8 +9390,8 @@
       <c r="HS78" s="7"/>
     </row>
     <row r="79" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="62"/>
-      <c r="C79" s="65"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="59"/>
       <c r="D79" s="53">
         <v>7.2</v>
       </c>
@@ -9462,8 +9471,8 @@
       <c r="HS79" s="7"/>
     </row>
     <row r="80" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="62"/>
-      <c r="C80" s="65"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="53">
         <v>7.3</v>
       </c>
@@ -9543,8 +9552,8 @@
       <c r="HS80" s="7"/>
     </row>
     <row r="81" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="62"/>
-      <c r="C81" s="65"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="59"/>
       <c r="D81" s="53">
         <v>7.4</v>
       </c>
@@ -9624,8 +9633,8 @@
       <c r="HS81" s="7"/>
     </row>
     <row r="82" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="62"/>
-      <c r="C82" s="65"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="59"/>
       <c r="D82" s="53">
         <v>7.5</v>
       </c>
@@ -9705,8 +9714,8 @@
       <c r="HS82" s="7"/>
     </row>
     <row r="83" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="62"/>
-      <c r="C83" s="65"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="59"/>
       <c r="D83" s="53">
         <v>7.6</v>
       </c>
@@ -9786,8 +9795,8 @@
       <c r="HS83" s="7"/>
     </row>
     <row r="84" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="62"/>
-      <c r="C84" s="65"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="59"/>
       <c r="D84" s="53">
         <v>7.7</v>
       </c>
@@ -9867,8 +9876,8 @@
       <c r="HS84" s="7"/>
     </row>
     <row r="85" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="62"/>
-      <c r="C85" s="65"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="59"/>
       <c r="D85" s="53">
         <v>7.8</v>
       </c>
@@ -9948,8 +9957,8 @@
       <c r="HS85" s="7"/>
     </row>
     <row r="86" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="62"/>
-      <c r="C86" s="65"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="59"/>
       <c r="D86" s="53">
         <v>7.9</v>
       </c>
@@ -10029,8 +10038,8 @@
       <c r="HS86" s="7"/>
     </row>
     <row r="87" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="63"/>
-      <c r="C87" s="66"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="60"/>
       <c r="D87" s="52"/>
       <c r="E87" s="14" t="s">
         <v>23</v>
@@ -11099,12 +11108,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="B6:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="S1:W1"/>
@@ -11121,6 +11124,12 @@
     <mergeCell ref="B37:B47"/>
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="C48:C57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -994,7 +994,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X43" sqref="X43"/>
+      <selection pane="bottomRight" activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="Y4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z4" s="40">
         <f t="shared" si="0"/>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="F42" s="38">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -6391,6 +6391,9 @@
       </c>
       <c r="X42" s="7">
         <v>2</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>4</v>
       </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>

--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -991,10 +991,10 @@
   <dimension ref="A1:HT100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="S26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Y43" sqref="Y43"/>
+      <selection pane="bottomRight" activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="Z4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="40">
         <f t="shared" si="0"/>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="F13" s="38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -3972,6 +3972,9 @@
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
+      <c r="AA13" s="1">
+        <v>2</v>
+      </c>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AK13" s="7"/>
@@ -6379,7 +6382,7 @@
       </c>
       <c r="F42" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -6394,6 +6397,12 @@
       </c>
       <c r="Y42" s="1">
         <v>4</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>2</v>
       </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>

--- a/hours/time_sheet.xlsx
+++ b/hours/time_sheet.xlsx
@@ -994,7 +994,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="S26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AB42" sqref="AB42"/>
+      <selection pane="bottomRight" activeCell="AB49" sqref="AB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G4" s="40">
         <f t="shared" si="0"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="AB4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC4" s="40">
         <f t="shared" si="0"/>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -6896,6 +6896,9 @@
       <c r="Q48" s="7"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
+      <c r="AB48" s="1">
+        <v>4</v>
+      </c>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7"/>
       <c r="AK48" s="7"/>
